--- a/biology/Zoologie/Adalia_decempunctata/Adalia_decempunctata.xlsx
+++ b/biology/Zoologie/Adalia_decempunctata/Adalia_decempunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccinelle à dix points
 Adalia decempunctata, la Coccinelle à dix points, est une espèce de coléoptères de la famille des coccinellidés.
@@ -512,10 +524,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Coccinella decempunctata Linnaeus, 1758[1]
-Coccinella variabilis Fabricius, 1777[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Coccinella decempunctata Linnaeus, 1758
+Coccinella variabilis Fabricius, 1777</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 avril 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 avril 2023) :
 Adalia decempunctata var. bipustulata Herbst
 Adalia decempunctata var. decempustulata (Linnaeus)
 Adalia decempunctata var. guttatopunctata (Linnaeus)
